--- a/data-viz_blog/_site/posts/welcome/nfl_reactable.xlsx
+++ b/data-viz_blog/_site/posts/welcome/nfl_reactable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicadesilva/Documents/repos/image_nfl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicadesilva/Documents/repos/data-viz_sports-blog/data-viz_blog/_posts/welcome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE429AC-C0BF-954C-9387-AD1734443481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281A1079-4087-D841-9787-23FD1E1DAD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="6340" windowWidth="30900" windowHeight="17440" xr2:uid="{91A06C20-8504-C043-A4DC-318E706E277E}"/>
+    <workbookView xWindow="4920" yWindow="500" windowWidth="30900" windowHeight="17440" xr2:uid="{91A06C20-8504-C043-A4DC-318E706E277E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="307">
   <si>
     <t>PLAYER</t>
   </si>
@@ -53,282 +53,6 @@
     <t>PROSPECT_GRADE</t>
   </si>
   <si>
-    <t>chau_smith-wade</t>
-  </si>
-  <si>
-    <t>christian_roland-wallace</t>
-  </si>
-  <si>
-    <t>dadrion_taylor-demerson</t>
-  </si>
-  <si>
-    <t>decamerion_richardson</t>
-  </si>
-  <si>
-    <t>ainias_smith</t>
-  </si>
-  <si>
-    <t>brenden_rice</t>
-  </si>
-  <si>
-    <t>jacob_cowing</t>
-  </si>
-  <si>
-    <t>ray_davis</t>
-  </si>
-  <si>
-    <t>mike_wiley</t>
-  </si>
-  <si>
-    <t>ricky_pearsall</t>
-  </si>
-  <si>
-    <t>troy_franklin</t>
-  </si>
-  <si>
-    <t>xavier_legette</t>
-  </si>
-  <si>
-    <t>xavier_worthy</t>
-  </si>
-  <si>
-    <t>spencer_rattler</t>
-  </si>
-  <si>
-    <t>caedan_wallace</t>
-  </si>
-  <si>
-    <t>ethan_driskell</t>
-  </si>
-  <si>
-    <t>frank_crum</t>
-  </si>
-  <si>
-    <t>jordan_morgan</t>
-  </si>
-  <si>
-    <t>jeremy_flax</t>
-  </si>
-  <si>
-    <t>mekhi_wingo</t>
-  </si>
-  <si>
-    <t>byron_murphy</t>
-  </si>
-  <si>
-    <t>jontrey_hunter</t>
-  </si>
-  <si>
-    <t>kris_jenkins</t>
-  </si>
-  <si>
-    <t>maason_smith</t>
-  </si>
-  <si>
-    <t>tommy_eichenberg</t>
-  </si>
-  <si>
-    <t>t'vondre_sweat</t>
-  </si>
-  <si>
-    <t>junior_colson</t>
-  </si>
-  <si>
-    <t>josh_wallace</t>
-  </si>
-  <si>
-    <t>AD_mitchell</t>
-  </si>
-  <si>
-    <t>deantre_prince</t>
-  </si>
-  <si>
-    <t>dwight_mcglothern</t>
-  </si>
-  <si>
-    <t>audric_estime</t>
-  </si>
-  <si>
-    <t>brock_bowers</t>
-  </si>
-  <si>
-    <t>cade_stover</t>
-  </si>
-  <si>
-    <t>dominique_hampton</t>
-  </si>
-  <si>
-    <t>isaiah_davis</t>
-  </si>
-  <si>
-    <t>jaylen_wright</t>
-  </si>
-  <si>
-    <t>jonathan_brooks</t>
-  </si>
-  <si>
-    <t>josh_newton</t>
-  </si>
-  <si>
-    <t>JT_sanders</t>
-  </si>
-  <si>
-    <t>malik_nabers</t>
-  </si>
-  <si>
-    <t>marshawn_lloyd</t>
-  </si>
-  <si>
-    <t>mike_sainristil</t>
-  </si>
-  <si>
-    <t>MJ_devonshire</t>
-  </si>
-  <si>
-    <t>myles_harden</t>
-  </si>
-  <si>
-    <t>ryan_watts</t>
-  </si>
-  <si>
-    <t>tahj_washington</t>
-  </si>
-  <si>
-    <t>willie_drew</t>
-  </si>
-  <si>
-    <t>TJ_tampa</t>
-  </si>
-  <si>
-    <t>christian_jones</t>
-  </si>
-  <si>
-    <t>graham_barton</t>
-  </si>
-  <si>
-    <t>beaux_limmer</t>
-  </si>
-  <si>
-    <t>charles_turner_III</t>
-  </si>
-  <si>
-    <t>zak_zinter</t>
-  </si>
-  <si>
-    <t>jaylen_key</t>
-  </si>
-  <si>
-    <t>kalen_deloach</t>
-  </si>
-  <si>
-    <t>keith_randolph</t>
-  </si>
-  <si>
-    <t>marcus_harris</t>
-  </si>
-  <si>
-    <t>trevin_wallace</t>
-  </si>
-  <si>
-    <t>zion_logue</t>
-  </si>
-  <si>
-    <t>jordan_jefferson</t>
-  </si>
-  <si>
-    <t>marshawn_kneeland</t>
-  </si>
-  <si>
-    <t>jalyx_hunt</t>
-  </si>
-  <si>
-    <t>javon_solomon</t>
-  </si>
-  <si>
-    <t>jer'zhan_newton</t>
-  </si>
-  <si>
-    <t>justin_eboigbe</t>
-  </si>
-  <si>
-    <t>justin_rogers</t>
-  </si>
-  <si>
-    <t>steele_chambers</t>
-  </si>
-  <si>
-    <t>tatum_bethune</t>
-  </si>
-  <si>
-    <t>ty'ron_hopper</t>
-  </si>
-  <si>
-    <t>daijahn_anthony</t>
-  </si>
-  <si>
-    <t>daijun_edwards</t>
-  </si>
-  <si>
-    <t>george_holani</t>
-  </si>
-  <si>
-    <t>jawhar_jordan</t>
-  </si>
-  <si>
-    <t>ladd_mcconkey</t>
-  </si>
-  <si>
-    <t>dylan_mcmahon</t>
-  </si>
-  <si>
-    <t>kingsley_eguakun</t>
-  </si>
-  <si>
-    <t>kiran_amegadjie</t>
-  </si>
-  <si>
-    <t>trevor_keegan</t>
-  </si>
-  <si>
-    <t>nick_samac</t>
-  </si>
-  <si>
-    <t>hunter_nourzad</t>
-  </si>
-  <si>
-    <t>javon_foster</t>
-  </si>
-  <si>
-    <t>delmar_glaze</t>
-  </si>
-  <si>
-    <t>gottlieb_ayedze</t>
-  </si>
-  <si>
-    <t>julian_pearl</t>
-  </si>
-  <si>
-    <t>ladarius_henderson</t>
-  </si>
-  <si>
-    <t>matt_goncalves</t>
-  </si>
-  <si>
-    <t>javon_bullard</t>
-  </si>
-  <si>
-    <t>jaylon_carlies</t>
-  </si>
-  <si>
-    <t>kamal_hadden</t>
-  </si>
-  <si>
-    <t>nehemiah_pritchett</t>
-  </si>
-  <si>
-    <t>ro_torrence</t>
-  </si>
-  <si>
     <t>DE</t>
   </si>
   <si>
@@ -389,144 +113,18 @@
     <t>FL</t>
   </si>
   <si>
-    <t>penn_state</t>
-  </si>
-  <si>
-    <t>mississippi_state</t>
-  </si>
-  <si>
-    <t>texas</t>
-  </si>
-  <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>notre_dame</t>
-  </si>
-  <si>
-    <t>texas_A&amp;M</t>
-  </si>
-  <si>
     <t>USC</t>
   </si>
   <si>
-    <t>texas_tech</t>
-  </si>
-  <si>
-    <t>arizona</t>
-  </si>
-  <si>
-    <t>kentucky</t>
-  </si>
-  <si>
-    <t>florida</t>
-  </si>
-  <si>
-    <t>oregon</t>
-  </si>
-  <si>
-    <t>south_carolina</t>
-  </si>
-  <si>
-    <t>marshall</t>
-  </si>
-  <si>
-    <t>wyoming</t>
-  </si>
-  <si>
     <t>LSU</t>
   </si>
   <si>
-    <t>georgia_state</t>
-  </si>
-  <si>
-    <t>michigan</t>
-  </si>
-  <si>
-    <t>ohio_state</t>
-  </si>
-  <si>
-    <t>ole_miss</t>
-  </si>
-  <si>
-    <t>arkansas</t>
-  </si>
-  <si>
-    <t>georgia</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>south_dakota_state</t>
-  </si>
-  <si>
-    <t>tennessee</t>
-  </si>
-  <si>
     <t>TCU</t>
   </si>
   <si>
-    <t>pitt</t>
-  </si>
-  <si>
-    <t>south_dakota</t>
-  </si>
-  <si>
-    <t>virginia_state</t>
-  </si>
-  <si>
-    <t>iowa_state</t>
-  </si>
-  <si>
-    <t>duke</t>
-  </si>
-  <si>
-    <t>alabama</t>
-  </si>
-  <si>
-    <t>florida_state</t>
-  </si>
-  <si>
-    <t>illinois</t>
-  </si>
-  <si>
-    <t>auburn</t>
-  </si>
-  <si>
-    <t>western_michigan</t>
-  </si>
-  <si>
-    <t>houston_christian</t>
-  </si>
-  <si>
-    <t>troy</t>
-  </si>
-  <si>
-    <t>missouri</t>
-  </si>
-  <si>
-    <t>boise_state</t>
-  </si>
-  <si>
-    <t>louisville</t>
-  </si>
-  <si>
-    <t>NC_state</t>
-  </si>
-  <si>
-    <t>yale</t>
-  </si>
-  <si>
-    <t>michigan_state</t>
-  </si>
-  <si>
-    <t>maryland</t>
-  </si>
-  <si>
-    <t>arizona_state</t>
-  </si>
-  <si>
     <t>ROUND</t>
   </si>
   <si>
@@ -699,6 +297,666 @@
   </si>
   <si>
     <t>Fresno State</t>
+  </si>
+  <si>
+    <t>Chau Smith-Wade</t>
+  </si>
+  <si>
+    <t>Christian Roland-Wallace</t>
+  </si>
+  <si>
+    <t>Dadrion Taylor-Demerson</t>
+  </si>
+  <si>
+    <t>Ainias Smith</t>
+  </si>
+  <si>
+    <t>Brenden Rice</t>
+  </si>
+  <si>
+    <t>Jacob Cowing</t>
+  </si>
+  <si>
+    <t>Ray Davis</t>
+  </si>
+  <si>
+    <t>Mike Wiley</t>
+  </si>
+  <si>
+    <t>Ricky Pearsall</t>
+  </si>
+  <si>
+    <t>Troy Franklin</t>
+  </si>
+  <si>
+    <t>Xavier Legette</t>
+  </si>
+  <si>
+    <t>Xavier Worthy</t>
+  </si>
+  <si>
+    <t>Spencer Rattler</t>
+  </si>
+  <si>
+    <t>Caedan Wallace</t>
+  </si>
+  <si>
+    <t>Ethan Driskell</t>
+  </si>
+  <si>
+    <t>Frank Crum</t>
+  </si>
+  <si>
+    <t>Jordan Morgan</t>
+  </si>
+  <si>
+    <t>Jeremy Flax</t>
+  </si>
+  <si>
+    <t>Mekhi Wingo</t>
+  </si>
+  <si>
+    <t>Byron Murphy</t>
+  </si>
+  <si>
+    <t>Jontrey Hunter</t>
+  </si>
+  <si>
+    <t>Kris Jenkins</t>
+  </si>
+  <si>
+    <t>Maason Smith</t>
+  </si>
+  <si>
+    <t>Tommy Eichenberg</t>
+  </si>
+  <si>
+    <t>T'vondre Sweat</t>
+  </si>
+  <si>
+    <t>Junior Colson</t>
+  </si>
+  <si>
+    <t>Josh Wallace</t>
+  </si>
+  <si>
+    <t>AD Mitchell</t>
+  </si>
+  <si>
+    <t>Deantre Prince</t>
+  </si>
+  <si>
+    <t>Dwight Mcglothern</t>
+  </si>
+  <si>
+    <t>Audric Estime</t>
+  </si>
+  <si>
+    <t>Brock Bowers</t>
+  </si>
+  <si>
+    <t>Cade Stover</t>
+  </si>
+  <si>
+    <t>Dominique Hampton</t>
+  </si>
+  <si>
+    <t>Isaiah Davis</t>
+  </si>
+  <si>
+    <t>Jaylen Wright</t>
+  </si>
+  <si>
+    <t>Jonathan Brooks</t>
+  </si>
+  <si>
+    <t>Josh Newton</t>
+  </si>
+  <si>
+    <t>JT Sanders</t>
+  </si>
+  <si>
+    <t>Malik Nabers</t>
+  </si>
+  <si>
+    <t>Marshawn Lloyd</t>
+  </si>
+  <si>
+    <t>Mike Sainristil</t>
+  </si>
+  <si>
+    <t>MJ Devonshire</t>
+  </si>
+  <si>
+    <t>Myles Harden</t>
+  </si>
+  <si>
+    <t>Ryan Watts</t>
+  </si>
+  <si>
+    <t>Tahj Washington</t>
+  </si>
+  <si>
+    <t>Willie Drew</t>
+  </si>
+  <si>
+    <t>TJ Tampa</t>
+  </si>
+  <si>
+    <t>Christian Jones</t>
+  </si>
+  <si>
+    <t>Graham Barton</t>
+  </si>
+  <si>
+    <t>Beaux Limmer</t>
+  </si>
+  <si>
+    <t>Charles Turner III</t>
+  </si>
+  <si>
+    <t>Zak Zinter</t>
+  </si>
+  <si>
+    <t>Jaylen Key</t>
+  </si>
+  <si>
+    <t>Kalen Deloach</t>
+  </si>
+  <si>
+    <t>Keith Randolph</t>
+  </si>
+  <si>
+    <t>Marcus Harris</t>
+  </si>
+  <si>
+    <t>Trevin Wallace</t>
+  </si>
+  <si>
+    <t>Zion Logue</t>
+  </si>
+  <si>
+    <t>Jordan Jefferson</t>
+  </si>
+  <si>
+    <t>Marshawn Kneeland</t>
+  </si>
+  <si>
+    <t>Jalyx Hunt</t>
+  </si>
+  <si>
+    <t>Javon Solomon</t>
+  </si>
+  <si>
+    <t>Jer'zhan Newton</t>
+  </si>
+  <si>
+    <t>Justin Eboigbe</t>
+  </si>
+  <si>
+    <t>Justin Rogers</t>
+  </si>
+  <si>
+    <t>Steele Chambers</t>
+  </si>
+  <si>
+    <t>Tatum Bethune</t>
+  </si>
+  <si>
+    <t>Ty'ron Hopper</t>
+  </si>
+  <si>
+    <t>Daijahn Anthony</t>
+  </si>
+  <si>
+    <t>Daijun Edwards</t>
+  </si>
+  <si>
+    <t>George Holani</t>
+  </si>
+  <si>
+    <t>Jawhar Jordan</t>
+  </si>
+  <si>
+    <t>Ladd Mcconkey</t>
+  </si>
+  <si>
+    <t>Dylan Mcmahon</t>
+  </si>
+  <si>
+    <t>Kingsley Eguakun</t>
+  </si>
+  <si>
+    <t>Kiran Amegadjie</t>
+  </si>
+  <si>
+    <t>Trevor Keegan</t>
+  </si>
+  <si>
+    <t>Nick Samac</t>
+  </si>
+  <si>
+    <t>Hunter Nourzad</t>
+  </si>
+  <si>
+    <t>Javon Foster</t>
+  </si>
+  <si>
+    <t>Delmar Glaze</t>
+  </si>
+  <si>
+    <t>Gottlieb Ayedze</t>
+  </si>
+  <si>
+    <t>Julian Pearl</t>
+  </si>
+  <si>
+    <t>Ladarius Henderson</t>
+  </si>
+  <si>
+    <t>Matt Goncalves</t>
+  </si>
+  <si>
+    <t>Javon Bullard</t>
+  </si>
+  <si>
+    <t>Jaylon Carlies</t>
+  </si>
+  <si>
+    <t>Kamal Hadden</t>
+  </si>
+  <si>
+    <t>Nehemiah Pritchett</t>
+  </si>
+  <si>
+    <t>Ro Torrence</t>
+  </si>
+  <si>
+    <t>Decamerion Richardson</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Georgia State</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>South Dakota State</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Virginia State</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Florida State</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Western Michigan</t>
+  </si>
+  <si>
+    <t>Houston Christian</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Boise State</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200434f-5753-2087-d639-9da7fffb6b08</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004441-5663-2804-a8ce-2174ee79562e</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005749-4c05-6643-ff37-c15e114c13e8</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005045-4130-7677-7b9e-0f0ef8659c89</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004652-4154-5210-6c05-a56029ed000f</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004c45-4714-5351-c48c-d286b74bea32</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200574f-5274-1496-c9ca-5c4709faa05b</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005241-5468-9214-c9ac-83458db99cd0</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005741-4c42-2259-ffd8-7b5f32694b32</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004352-5515-6249-f6af-9e7e6f235d9d</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004d4f-5216-6787-ef94-4c5252cbb096</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200464c-4178-9915-fb08-4a0315714ffd</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005749-4e28-0067-e05b-a095c9de34df</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004d55-5252-6628-1a87-66e20cb9aefc</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004a45-4e33-9534-d419-9403eb944b45</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200534d-4950-1138-61be-6010d78fdcb8</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005357-4503-6191-3121-111b51ed5d1a</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004d49-5405-6120-269b-4e222571d8ba</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005052-4948-2851-1c04-c2f11bebd082</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004d43-4750-2452-f50b-d013530d26a3</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004553-5461-0772-74c0-fa722e2922d5</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005354-4f76-3332-ef91-581e774c28f8</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004841-4d71-2740-14ec-b1d54a4522d1</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004441-5641-0574-531b-0bc55bd5bc41</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005752-4939-8099-f6ee-7772cc125a42</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004e45-5771-7321-9075-dad471752a62</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005341-4e34-3203-cb70-91304b1c422f</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004c4c-4f67-3464-78d4-33609054aa9a</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005341-4962-4938-6c41-d09bb59ca3c5</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004445-5673-2066-44b0-68da2ef75242</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004841-5204-9297-c764-1780b0487c93</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005741-5480-3030-f21d-93f84d7c7fbd</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004452-4555-0347-3dbb-e5ba74d6801a</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004a4f-4e16-2388-f691-24ec23907fd5</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004c49-4d52-3267-2601-cef2d3c962cd</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004b45-5911-4787-d62b-bcf7b3641da8</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004445-4c53-7815-365f-74132262e167</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005241-4e62-1404-d2f3-c44cf48abaed</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004841-5247-4674-4622-c639bfe2198a</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005741-4c50-5176-62e5-ca60fedbd783</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004c4f-4782-4407-9200-767622ed6c1a</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004b4e-4542-6541-f4b3-41ddd574e6e9</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004855-4e24-9742-b212-73017a032b03</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200534f-4c22-8092-733c-eec3f091d0b7</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004542-4f41-5291-7d8a-20ad6284064c</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200414e-5411-1455-6660-1276cba54e95</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200484f-4c00-0290-4322-bf5019f19a33</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004a4f-5231-4292-d469-14bbab1f8a0b</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004d43-4351-2833-c30c-76941288e843</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004d43-4d09-4922-64fb-5d63d88d9d9f</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004b45-4530-4546-fe0e-58676b511739</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004e4f-5541-5291-467e-22dbf261fa56</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200464f-5342-2601-9382-68a5b7a3d54b</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200474c-4176-1060-bf39-44d4e2f381d5</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004159-4510-9099-9df3-cce45ad4589e</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005045-4129-3888-ab90-1ac63ff9a586</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004845-4e11-4173-c182-9729b36370fa</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200474f-4e05-9327-3d0d-6cea7b9a11d2</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004255-4c36-4409-64d7-463d99975cab</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004341-5210-6062-3aab-32ba6d133ec9</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004841-4423-0716-2b52-5ce6bc2fb341</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005052-4979-0475-45d7-4f092566c86a</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200544f-5269-5377-246c-542cf5409a4f</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005341-4d00-5636-5583-22fcebd4c033</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004547-5543-7422-543e-16c95f93f09f</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200414d-4528-3781-117b-20e12d587385</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004a45-4626-2504-bd92-1b84ab6f9a54</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004e45-5771-4885-82c7-4990610c7ce7</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200524f-4744-2916-1923-0e3e11415928</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004348-4113-1677-56a4-a22ead29d76e</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004245-5433-4096-9cd3-8690d0b53217</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200484f-5064-0560-858f-6453d28a5167</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004544-5721-5334-8ca1-49159f3fc3b3</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004252-4f13-1669-de2f-e975d31892d1</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004e41-4240-0459-a77d-033b6932cbbb</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005741-5373-1428-528e-5f3b4a22a973</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005441-4d52-3098-6c60-07c674275129</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004241-5276-8688-5a6e-aadc714bdd3c</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005455-5276-3289-1f99-181f98c5d31e</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005a49-4e61-5024-6aa5-537c5960518b</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004452-4939-9165-b091-4a84aea9700f</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004855-4e70-9663-eac0-d8c5e6b1dd22</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004549-4331-1468-1cf8-577bffa54426</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200434f-4c77-7167-54da-69a456b0b2a5</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32005741-4c46-3437-5d1d-34c8f1403e41</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200424f-5719-6560-aaaa-d9f4cc244721</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200464f-5222-9985-c677-cbfd5c113949</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200454c-4c74-9388-4f20-87da6cc5ab27</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/32004a4f-4809-4407-5897-b610163c8edf</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200524f-4c26-6426-8bed-993f6c505862</t>
+  </si>
+  <si>
+    <t>https://static.www.nfl.com/image/private/f_auto,q_85/%7B%7Binstance%7D%7D/god-draft-headshots/2024/3200534d-4902-4570-58a4-c92360387358</t>
   </si>
 </sst>
 </file>
@@ -1062,17 +1320,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1030C66-65FE-A944-A1FB-6318564996FF}">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.83203125" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
     <col min="5" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1085,19 +1343,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1106,24 +1364,24 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1132,31 +1390,31 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="I2" s="1">
         <v>6.1</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1165,31 +1423,31 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="I3" s="1">
         <v>5.89</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1198,28 +1456,31 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="I4" s="1">
         <v>6.14</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>302</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1228,28 +1489,31 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="I5" s="1">
         <v>5.63</v>
       </c>
       <c r="J5" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>303</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1258,31 +1522,31 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="I6" s="1">
         <v>6.26</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1291,31 +1555,31 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1">
         <v>6.4</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1324,31 +1588,31 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="I8" s="1">
         <v>6.17</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1357,31 +1621,31 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="I9" s="1">
         <v>6.16</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1390,30 +1654,30 @@
         <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="I10" s="1">
         <v>5.92</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1422,30 +1686,30 @@
         <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c r="I11" s="1">
         <v>6.13</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1454,30 +1718,30 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c r="I12" s="1">
         <v>5.43</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -1486,30 +1750,30 @@
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c r="I13" s="1">
         <v>5.68</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -1518,27 +1782,30 @@
         <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>219</v>
+        <v>85</v>
       </c>
       <c r="I14" s="1">
         <v>6.36</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>304</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -1547,30 +1814,30 @@
         <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="I15" s="1">
         <v>5.68</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1579,27 +1846,30 @@
         <v>89</v>
       </c>
       <c r="H16" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="I16" s="1">
         <v>6.19</v>
       </c>
       <c r="J16" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>305</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -1608,30 +1878,30 @@
         <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I17" s="1">
         <v>6.48</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1640,30 +1910,30 @@
         <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="I18" s="1">
         <v>5.54</v>
       </c>
       <c r="J18" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1672,27 +1942,30 @@
         <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="I19" s="1">
         <v>5.67</v>
       </c>
       <c r="J19" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>306</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1701,30 +1974,30 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="I20" s="1">
         <v>4.51</v>
       </c>
       <c r="J20" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1733,27 +2006,30 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I21" s="1">
         <v>6.1</v>
       </c>
       <c r="J21" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1762,27 +2038,30 @@
         <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="I22" s="1">
         <v>5.89</v>
       </c>
       <c r="J22" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1791,27 +2070,30 @@
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="I23" s="1">
         <v>6.14</v>
       </c>
       <c r="J23" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1820,27 +2102,30 @@
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="I24" s="1">
         <v>5.63</v>
       </c>
       <c r="J24" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -1849,27 +2134,30 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="I25" s="1">
         <v>6.26</v>
       </c>
       <c r="J25" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1878,27 +2166,30 @@
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="I26" s="1">
         <v>6.4</v>
       </c>
       <c r="J26" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>221</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1907,27 +2198,30 @@
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="I27" s="1">
         <v>6.17</v>
       </c>
       <c r="J27" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>222</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1936,27 +2230,30 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="I28" s="1">
         <v>6.16</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>223</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1965,27 +2262,30 @@
         <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="I29" s="1">
         <v>5.92</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>224</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -1994,27 +2294,30 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="I30" s="1">
         <v>6.13</v>
       </c>
       <c r="J30" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>296</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -2023,27 +2326,30 @@
         <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="I31" s="1">
         <v>6.24</v>
       </c>
       <c r="J31" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>225</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -2052,27 +2358,30 @@
         <v>56</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="I32" s="1">
         <v>5.68</v>
       </c>
       <c r="J32" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -2081,27 +2390,30 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="I33" s="1">
         <v>6.36</v>
       </c>
       <c r="J33" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>227</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2110,27 +2422,30 @@
         <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="I34" s="1">
         <v>5.68</v>
       </c>
       <c r="J34" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>228</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -2139,27 +2454,30 @@
         <v>56</v>
       </c>
       <c r="H35" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="I35" s="1">
         <v>6.19</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>229</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -2168,27 +2486,30 @@
         <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="I36" s="1">
         <v>6.48</v>
       </c>
       <c r="J36" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>297</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2197,27 +2518,30 @@
         <v>89</v>
       </c>
       <c r="H37" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="I37" s="1">
         <v>4.5599999999999996</v>
       </c>
       <c r="J37" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>230</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -2226,27 +2550,30 @@
         <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="I38" s="1">
         <v>6.3</v>
       </c>
       <c r="J38" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>231</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -2255,27 +2582,30 @@
         <v>65</v>
       </c>
       <c r="H39" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="I39" s="1">
         <v>6.13</v>
       </c>
       <c r="J39" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>298</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -2284,27 +2614,30 @@
         <v>43</v>
       </c>
       <c r="H40" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="I40" s="1">
         <v>6.36</v>
       </c>
       <c r="J40" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>232</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -2313,27 +2646,30 @@
         <v>32</v>
       </c>
       <c r="H41" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="I41" s="1">
         <v>5.68</v>
       </c>
       <c r="J41" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>299</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -2342,27 +2678,30 @@
         <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="I42" s="1">
         <v>6.19</v>
       </c>
       <c r="J42" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>300</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2371,27 +2710,30 @@
         <v>25</v>
       </c>
       <c r="H43" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="I43" s="1">
         <v>6.48</v>
       </c>
       <c r="J43" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>233</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2400,27 +2742,30 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="I44" s="1">
         <v>6.37</v>
       </c>
       <c r="J44" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>234</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2429,27 +2774,30 @@
         <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="I45" s="1">
         <v>5.81</v>
       </c>
       <c r="J45" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>235</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2458,27 +2806,30 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="I46" s="1">
         <v>6.36</v>
       </c>
       <c r="J46" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>236</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2487,27 +2838,30 @@
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="I47" s="1">
         <v>5.68</v>
       </c>
       <c r="J47" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>301</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -2516,27 +2870,30 @@
         <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="I48" s="1">
         <v>6.19</v>
       </c>
       <c r="J48" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>237</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E49" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2545,27 +2902,30 @@
         <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="I49" s="1">
         <v>6.48</v>
       </c>
       <c r="J49" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>238</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -2574,27 +2934,30 @@
         <v>23</v>
       </c>
       <c r="H50" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="I50" s="1">
         <v>5.92</v>
       </c>
       <c r="J50" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>239</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2603,27 +2966,30 @@
         <v>34</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="I51" s="1">
         <v>6.14</v>
       </c>
       <c r="J51" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>240</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2632,27 +2998,30 @@
         <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="I52" s="1">
         <v>6.28</v>
       </c>
       <c r="J52" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>289</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2661,27 +3030,30 @@
         <v>56</v>
       </c>
       <c r="H53" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="I53" s="1">
         <v>6.36</v>
       </c>
       <c r="J53" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>241</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2690,27 +3062,30 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="I54" s="1">
         <v>5.68</v>
       </c>
       <c r="J54" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>242</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -2719,27 +3094,30 @@
         <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="I55" s="1">
         <v>6.19</v>
       </c>
       <c r="J55" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>290</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2748,27 +3126,30 @@
         <v>56</v>
       </c>
       <c r="H56" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="I56" s="1">
         <v>6.48</v>
       </c>
       <c r="J56" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>243</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2777,27 +3158,30 @@
         <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I57" s="1">
         <v>6.18</v>
       </c>
       <c r="J57" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>244</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E58" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2806,27 +3190,30 @@
         <v>89</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="I58" s="1">
         <v>6.2</v>
       </c>
       <c r="J58" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>245</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E59" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -2835,27 +3222,30 @@
         <v>78</v>
       </c>
       <c r="H59" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="I59" s="1">
         <v>6</v>
       </c>
       <c r="J59" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>246</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2864,27 +3254,30 @@
         <v>65</v>
       </c>
       <c r="H60" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="I60" s="1">
         <v>6.36</v>
       </c>
       <c r="J60" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>247</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="E61" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -2893,27 +3286,30 @@
         <v>43</v>
       </c>
       <c r="H61" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="I61" s="1">
         <v>5.68</v>
       </c>
       <c r="J61" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>291</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E62" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2922,27 +3318,30 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I62" s="1">
         <v>6.19</v>
       </c>
       <c r="J62" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>248</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E63" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -2951,27 +3350,30 @@
         <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="I63" s="1">
         <v>6.48</v>
       </c>
       <c r="J63" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>292</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E64" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2980,27 +3382,30 @@
         <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="I64" s="1">
         <v>6.36</v>
       </c>
       <c r="J64" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>249</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3009,27 +3414,30 @@
         <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="I65" s="1">
         <v>5.68</v>
       </c>
       <c r="J65" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>293</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -3038,27 +3446,30 @@
         <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="I66" s="1">
         <v>6.19</v>
       </c>
       <c r="J66" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>250</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -3067,27 +3478,30 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="I67" s="1">
         <v>6.48</v>
       </c>
       <c r="J67" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>294</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F68">
         <v>3</v>
@@ -3096,27 +3510,30 @@
         <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="I68" s="1">
         <v>6.36</v>
       </c>
       <c r="J68" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>295</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="E69" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3125,27 +3542,30 @@
         <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="I69" s="1">
         <v>5.68</v>
       </c>
       <c r="J69" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>251</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E70" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -3154,27 +3574,30 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="I70" s="1">
         <v>6.19</v>
       </c>
       <c r="J70" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>252</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E71" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F71">
         <v>3</v>
@@ -3183,27 +3606,30 @@
         <v>23</v>
       </c>
       <c r="H71" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="I71" s="1">
         <v>6.48</v>
       </c>
       <c r="J71" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>253</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E72" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3212,27 +3638,30 @@
         <v>34</v>
       </c>
       <c r="H72" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="I72" s="1">
         <v>5.86</v>
       </c>
       <c r="J72" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>254</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E73" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -3241,27 +3670,30 @@
         <v>45</v>
       </c>
       <c r="H73" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="I73" s="1">
         <v>6.19</v>
       </c>
       <c r="J73" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>255</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E74" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F74">
         <v>3</v>
@@ -3270,27 +3702,30 @@
         <v>56</v>
       </c>
       <c r="H74" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="I74" s="1">
         <v>6.36</v>
       </c>
       <c r="J74" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>256</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E75" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3299,27 +3734,30 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="I75" s="1">
         <v>5.68</v>
       </c>
       <c r="J75" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>282</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E76" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -3328,27 +3766,30 @@
         <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="I76" s="1">
         <v>6.19</v>
       </c>
       <c r="J76" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>257</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="E77" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F77">
         <v>3</v>
@@ -3357,27 +3798,30 @@
         <v>56</v>
       </c>
       <c r="H77" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="I77" s="1">
         <v>6.48</v>
       </c>
       <c r="J77" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>258</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E78" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3386,27 +3830,30 @@
         <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="I78" s="1">
         <v>5.97</v>
       </c>
       <c r="J78" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>259</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E79" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -3415,27 +3862,30 @@
         <v>89</v>
       </c>
       <c r="H79" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="I79" s="1">
         <v>6.13</v>
       </c>
       <c r="J79" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>283</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E80" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F80">
         <v>3</v>
@@ -3444,27 +3894,30 @@
         <v>78</v>
       </c>
       <c r="H80" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="I80" s="1">
         <v>6.1</v>
       </c>
       <c r="J80" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>260</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E81" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -3473,27 +3926,30 @@
         <v>65</v>
       </c>
       <c r="H81" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="I81" s="1">
         <v>5.89</v>
       </c>
       <c r="J81" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>284</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3502,27 +3958,30 @@
         <v>43</v>
       </c>
       <c r="H82" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="I82" s="1">
         <v>6.14</v>
       </c>
       <c r="J82" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>285</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E83" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -3531,27 +3990,30 @@
         <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="I83" s="1">
         <v>5.63</v>
       </c>
       <c r="J83" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>286</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E84" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3560,27 +4022,30 @@
         <v>24</v>
       </c>
       <c r="H84" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="I84" s="1">
         <v>6.26</v>
       </c>
       <c r="J84" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>287</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="E85" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -3589,27 +4054,30 @@
         <v>25</v>
       </c>
       <c r="H85" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="I85" s="1">
         <v>6.4</v>
       </c>
       <c r="J85" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>261</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E86" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3618,27 +4086,30 @@
         <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="I86" s="1">
         <v>6.17</v>
       </c>
       <c r="J86" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>288</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E87" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -3647,27 +4118,30 @@
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="I87" s="1">
         <v>6.16</v>
       </c>
       <c r="J87" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>262</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E88" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -3676,27 +4150,30 @@
         <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="I88" s="1">
         <v>6.36</v>
       </c>
       <c r="J88" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>263</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E89" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -3705,27 +4182,30 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="I89" s="1">
         <v>5.68</v>
       </c>
       <c r="J89" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>264</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E90" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3734,27 +4214,30 @@
         <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="I90" s="1">
         <v>6.19</v>
       </c>
       <c r="J90" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>265</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E91" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -3763,27 +4246,30 @@
         <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="I91" s="1">
         <v>6.48</v>
       </c>
       <c r="J91" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>280</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E92" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -3792,27 +4278,30 @@
         <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="I92" s="1">
         <v>6.36</v>
       </c>
       <c r="J92" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>281</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="E93" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -3821,27 +4310,30 @@
         <v>23</v>
       </c>
       <c r="H93" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="I93" s="1">
         <v>5.68</v>
       </c>
       <c r="J93" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="B94" t="s">
-        <v>112</v>
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>266</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E94" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F94">
         <v>3</v>
@@ -3850,27 +4342,30 @@
         <v>34</v>
       </c>
       <c r="H94" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="I94" s="1">
         <v>6.19</v>
       </c>
       <c r="J94" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="B95" t="s">
-        <v>111</v>
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>279</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E95" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -3879,27 +4374,30 @@
         <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="I95" s="1">
         <v>6.48</v>
       </c>
       <c r="J95" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>267</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E96" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F96">
         <v>3</v>
@@ -3908,27 +4406,30 @@
         <v>56</v>
       </c>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="I96" s="1">
         <v>6.1</v>
       </c>
       <c r="J96" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>268</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E97" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -3937,27 +4438,30 @@
         <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="I97" s="1">
         <v>5.89</v>
       </c>
       <c r="J97" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>269</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -3966,27 +4470,30 @@
         <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="I98" s="1">
         <v>6.14</v>
       </c>
       <c r="J98" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>270</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -3995,27 +4502,30 @@
         <v>56</v>
       </c>
       <c r="H99" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="I99" s="1">
         <v>5.63</v>
       </c>
       <c r="J99" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>271</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E100" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -4024,27 +4534,30 @@
         <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="I100" s="1">
         <v>6.26</v>
       </c>
       <c r="J100" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>272</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F101">
         <v>3</v>
@@ -4053,27 +4566,30 @@
         <v>89</v>
       </c>
       <c r="H101" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="I101" s="1">
         <v>6.4</v>
       </c>
       <c r="J101" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>273</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E102" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -4082,27 +4598,30 @@
         <v>78</v>
       </c>
       <c r="H102" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="I102" s="1">
         <v>6.17</v>
       </c>
       <c r="J102" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>274</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F103">
         <v>2</v>
@@ -4111,27 +4630,30 @@
         <v>65</v>
       </c>
       <c r="H103" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="I103" s="1">
         <v>6.16</v>
       </c>
       <c r="J103" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>275</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E104" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F104">
         <v>3</v>
@@ -4140,27 +4662,30 @@
         <v>43</v>
       </c>
       <c r="H104" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="I104" s="1">
         <v>5.92</v>
       </c>
       <c r="J104" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>276</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -4169,27 +4694,30 @@
         <v>32</v>
       </c>
       <c r="H105" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="I105" s="1">
         <v>6.13</v>
       </c>
       <c r="J105" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>277</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E106" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -4198,27 +4726,30 @@
         <v>24</v>
       </c>
       <c r="H106" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="I106" s="1">
         <v>4.4400000000000004</v>
       </c>
       <c r="J106" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>278</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E107" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F107">
         <v>3</v>
@@ -4227,13 +4758,13 @@
         <v>25</v>
       </c>
       <c r="H107" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="I107" s="1">
         <v>5.68</v>
       </c>
       <c r="J107" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
